--- a/results/I3_N5_M2_T45_C150_DepLowerLeft_s2_mean_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepLowerLeft_s2_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589.6502844782735</v>
+        <v>421.5626070691574</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.25</v>
+        <v>0.2599999904632568</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.59143808817635</v>
+        <v>51.56260706915739</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.86208780205292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14.74093419213956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>497.6600000000106</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>56.52</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,28 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -645,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -667,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -678,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -700,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -711,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -802,7 +780,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -874,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30.66483080554379</v>
+        <v>31.76867181805994</v>
       </c>
     </row>
     <row r="4">
@@ -890,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41.86770052517324</v>
+        <v>41.72550364349502</v>
       </c>
     </row>
     <row r="6">
@@ -898,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38.87457506839733</v>
+        <v>38.65369863122113</v>
       </c>
     </row>
     <row r="7">
@@ -906,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -936,7 +914,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -964,48 +942,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="n">
-        <v>6</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1063,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>198.2320000000021</v>
+        <v>121.4</v>
       </c>
     </row>
     <row r="4">
@@ -1074,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>157.1590000000015</v>
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -1085,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>151.5339999999989</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6">
@@ -1096,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>107.7910000000004</v>
+        <v>139.6</v>
       </c>
     </row>
     <row r="7">
@@ -1107,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>41.88700000000073</v>
+        <v>65.8</v>
       </c>
     </row>
     <row r="8">
@@ -1118,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>198.2320000000021</v>
+        <v>139.6</v>
       </c>
     </row>
     <row r="9">
@@ -1129,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>151.5339999999989</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -1176,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>48.23200000000212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1187,7 +1123,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1.53399999999894</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1278,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>5.651999999999999</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1292,7 +1228,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1319,34 +1255,12 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
